--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/27_Düzce_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/27_Düzce_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2388FC6-2E9A-43E6-ADAA-F0EFA4A6CFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82DF473C-3111-474D-8880-4E6A03F8600B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{AB59DF53-64B9-48E1-9D58-8871E2843677}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{012331A0-3407-4A43-B344-4915A55CDAD3}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="125" r:id="rId1"/>
@@ -915,17 +915,17 @@
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{5DE22E66-49C6-4E83-9334-32B1E0D9EEEE}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{1CC38DF2-0727-4E48-A0D2-69361C43A154}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{66F1FED4-0BF6-4FF2-827D-9DA1BF4B7135}"/>
-    <cellStyle name="Normal 2 4" xfId="4" xr:uid="{A4C40E31-2A92-485C-B1AB-BBE933049D9A}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{06E3D34B-9996-47D3-B5F0-0EBFBFC7BA83}"/>
-    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{498ABAEB-D6F4-4F82-9DD9-428F8E1C4AD3}"/>
-    <cellStyle name="Normal 3 2 2" xfId="7" xr:uid="{2A227934-A588-4F25-A57E-E7E3767EF7EC}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="8" xr:uid="{8CD097F5-5FC6-41FC-8B8C-02CDE3B1E7EE}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="9" xr:uid="{E8B1F1D7-5935-4501-A0A4-AED5A4C6F5F5}"/>
-    <cellStyle name="Not 2" xfId="10" xr:uid="{9C5667B3-F58D-4642-961B-0E4A657B4372}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="11" xr:uid="{2547CFF0-B910-48F5-8771-C6608CFCFFBD}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{9B333231-937A-41C3-8DAB-12BAB68FB2C8}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{C0C25A58-1DDE-48B8-B825-C8A108ED8C45}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{5178A0D1-87EE-49DA-8256-022FFE8FD901}"/>
+    <cellStyle name="Normal 2 4" xfId="4" xr:uid="{2E350B6A-C14B-4236-806A-174C1D9D6E9C}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{39E3116A-A188-4E9B-9F07-17516112F4AC}"/>
+    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{250D8122-7715-4726-8C31-E9F525357331}"/>
+    <cellStyle name="Normal 3 2 2" xfId="7" xr:uid="{7A1AB825-6D24-4BA6-B522-D1A5739C824B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="8" xr:uid="{084556B8-1E9B-4247-B9AA-1859FC1329A3}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="9" xr:uid="{28AF5C12-4351-4D12-99F2-422B71738575}"/>
+    <cellStyle name="Not 2" xfId="10" xr:uid="{83F0A168-3B2F-4C5D-AAEB-E6C1D856D197}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="11" xr:uid="{43EB2A66-7AF3-400A-8A6F-EB6B5AC6F647}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1295,7 +1295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE414A3A-AFD7-459D-B92C-9B74427F3B99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035AD85E-0051-48FC-BAFC-05E6F4F21CFF}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2565,7 +2565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB48A11F-AE0A-4B98-B307-A674D725DBFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A6D826-C65E-46A6-8BD8-258FE8B23344}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3801,7 +3801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8285389D-FBE2-471E-9CFD-9C0590ABB88C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317E65BB-8E2C-4C48-AFE2-C906A2A7078A}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5031,7 +5031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F4B984-64B8-4719-9CEB-8448A9DDECDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D41910-6922-420F-A55C-E0FE606A378D}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6245,7 +6245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF83B4C-1B12-48FE-A1DA-772EDB329748}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C493E693-3CD7-4DA3-B96F-8AA0B054EBC9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7516,7 +7516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821FB373-7510-4630-A3A8-88444F3B8183}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310F5EF8-FAD8-4061-A954-F84B6A499298}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8787,7 +8787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12496F1B-4500-40AB-8AD3-F91939D29EC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2861C836-FC95-43F5-9B1B-5D891BD1E439}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10058,7 +10058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051AC294-94D2-4DB4-BE38-AED97623BF16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69681CC7-2073-4A05-913C-E63C0BBDD810}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11325,7 +11325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C40951-4E61-4EF4-AA2D-DC49D0D9541E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208A426D-176A-4C20-B1C0-C268F938FCAB}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -12593,7 +12593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD672D2B-B15A-4B11-99D6-317216AB203F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA9FCB9-2685-441F-8FED-0626928CB7DB}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -13849,7 +13849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8520ED4B-6B72-40FB-8165-99FCEBD26184}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8367CA2-0788-445B-9B5B-7F1D3C865100}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15105,7 +15105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25F372D-CC73-4D01-B505-849F307A41F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3A2A4A-C775-4226-A176-A901E145E1FC}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
